--- a/data/formularios/FormularioDAPBaspapay.xlsx
+++ b/data/formularios/FormularioDAPBaspapay.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive1\Haiti_DR_Woodfuel_Mapping2016\FieldWork_SepOct2019\Plots\Hinche\baspapay\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3B5E1C-DB29-4228-8CB9-29F521C379A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-21210" yWindow="2100" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10940" yWindow="0" windowWidth="14660" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,8 +14,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$P$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -128,9 +125,6 @@
     <t>Esquina larga</t>
   </si>
   <si>
-    <t>Pewpapay</t>
-  </si>
-  <si>
     <t>Acajou</t>
   </si>
   <si>
@@ -157,11 +151,14 @@
   <si>
     <t xml:space="preserve"> Acacia </t>
   </si>
+  <si>
+    <t>Pewpapay2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -268,42 +265,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,23 +308,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -342,7 +339,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -388,21 +385,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -416,11 +398,26 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,78 +752,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.5" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="5"/>
+    <col min="21" max="21" width="14.1640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="25">
         <v>43777</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="E2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -838,18 +835,18 @@
       <c r="Q3" s="16"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -883,7 +880,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -901,7 +898,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,7 +928,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -947,30 +944,30 @@
       <c r="R8"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -982,16 +979,16 @@
       <c r="R9"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1005,7 +1002,7 @@
       <c r="R10"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
@@ -1041,9 +1038,9 @@
       <c r="R11"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="21">
         <v>11.6</v>
@@ -1077,9 +1074,9 @@
       <c r="R12"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="B13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="21">
         <v>8.5</v>
@@ -1113,9 +1110,9 @@
       <c r="R13"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="B14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="21">
         <v>14.2</v>
@@ -1149,7 +1146,7 @@
       <c r="R14"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
@@ -1185,7 +1182,7 @@
       <c r="R15"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
@@ -1221,9 +1218,9 @@
       <c r="R16"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19">
       <c r="B17" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="21">
         <v>6.2</v>
@@ -1257,9 +1254,9 @@
       <c r="R17"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19">
       <c r="B18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="21">
         <v>43</v>
@@ -1293,9 +1290,9 @@
       <c r="R18"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19">
       <c r="B19" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="21">
         <v>6.7</v>
@@ -1329,9 +1326,9 @@
       <c r="R19"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19">
       <c r="B20" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="21">
         <v>13.6</v>
@@ -1365,9 +1362,9 @@
       <c r="R20"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19">
       <c r="B21" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="21">
         <v>15.4</v>
@@ -1401,9 +1398,9 @@
       <c r="R21"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="2:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="238">
       <c r="B22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="21">
         <v>15.3</v>
@@ -1437,9 +1434,9 @@
       <c r="R22"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="2:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="238">
       <c r="B23" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="21">
         <v>15</v>
@@ -1473,7 +1470,7 @@
       <c r="R23"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19">
       <c r="B24" s="21" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +1506,7 @@
       <c r="R24"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19">
       <c r="B25" s="21" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1542,7 @@
       <c r="R25"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19">
       <c r="B26" s="21" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1578,7 @@
       <c r="R26"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19">
       <c r="B27" s="21" t="s">
         <v>23</v>
       </c>
@@ -1617,7 +1614,7 @@
       <c r="R27"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19">
       <c r="B28" s="21" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1650,7 @@
       <c r="R28"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19">
       <c r="B29" s="21" t="s">
         <v>23</v>
       </c>
@@ -1689,7 +1686,7 @@
       <c r="R29"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19">
       <c r="B30" s="21" t="s">
         <v>23</v>
       </c>
@@ -1725,7 +1722,7 @@
       <c r="R30"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19">
       <c r="B31" s="21" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1758,7 @@
       <c r="R31"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19">
       <c r="B32" s="21" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1794,7 @@
       <c r="R32"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19">
       <c r="B33" s="21" t="s">
         <v>23</v>
       </c>
@@ -1833,7 +1830,7 @@
       <c r="R33"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="B34" s="21" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1866,7 @@
       <c r="R34"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19">
       <c r="B35" s="21" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1902,7 @@
       <c r="R35"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19">
       <c r="B36" s="21" t="s">
         <v>23</v>
       </c>
@@ -1941,7 +1938,7 @@
       <c r="R36"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19">
       <c r="B37" s="21" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1974,7 @@
       <c r="R37"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19">
       <c r="B38" s="21" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2010,7 @@
       <c r="R38"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19">
       <c r="B39" s="21" t="s">
         <v>23</v>
       </c>
@@ -2049,7 +2046,7 @@
       <c r="R39"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19">
       <c r="B40" s="21" t="s">
         <v>23</v>
       </c>
@@ -2079,14 +2076,14 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19">
       <c r="B41" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="21">
         <v>21</v>
@@ -2114,15 +2111,15 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="R41"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19">
       <c r="B42" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="21">
         <v>15.7</v>
@@ -2150,13 +2147,13 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
       <c r="R42"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19">
       <c r="B43" s="21" t="s">
         <v>25</v>
       </c>
@@ -2186,13 +2183,13 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
       <c r="R43"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19">
       <c r="B44" s="21" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2225,7 @@
       <c r="R44"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19">
       <c r="B45" s="21" t="s">
         <v>25</v>
       </c>
@@ -2264,9 +2261,9 @@
       <c r="R45"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19">
       <c r="B46" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="21">
         <v>21</v>
@@ -2300,9 +2297,9 @@
       <c r="R46"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19">
       <c r="B47" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="21">
         <v>15.7</v>
@@ -2336,9 +2333,9 @@
       <c r="R47"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19">
       <c r="B48" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="21">
         <v>18</v>
@@ -2372,9 +2369,9 @@
       <c r="R48"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19">
       <c r="B49" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="21">
         <v>14</v>
@@ -2406,9 +2403,9 @@
       <c r="P49" s="15"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19">
       <c r="B50" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="21">
         <v>14</v>
@@ -2440,9 +2437,9 @@
       <c r="P50" s="15"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19">
       <c r="B51" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="21">
         <v>14.3</v>
@@ -2474,9 +2471,9 @@
       <c r="P51" s="15"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19">
       <c r="B52" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="21">
         <v>15</v>
@@ -2508,9 +2505,9 @@
       <c r="P52" s="15"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19">
       <c r="B53" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="21">
         <v>17.5</v>
@@ -2542,9 +2539,9 @@
       <c r="P53" s="15"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19">
       <c r="B54" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="21">
         <v>12</v>
@@ -2576,9 +2573,9 @@
       <c r="P54" s="15"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19">
       <c r="B55" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="21">
         <v>15.2</v>
@@ -2610,9 +2607,9 @@
       <c r="P55" s="15"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19">
       <c r="B56" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="21">
         <v>12.3</v>
@@ -2644,9 +2641,9 @@
       <c r="P56" s="15"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19">
       <c r="B57" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="21">
         <v>12.1</v>
@@ -2678,9 +2675,9 @@
       <c r="P57" s="15"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19">
       <c r="B58" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="21">
         <v>12.2</v>
@@ -2712,9 +2709,9 @@
       <c r="P58" s="15"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19">
       <c r="B59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="21">
         <v>8</v>
@@ -2746,9 +2743,9 @@
       <c r="P59" s="15"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19">
       <c r="B60" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="21">
         <v>9.8000000000000007</v>
@@ -2780,9 +2777,9 @@
       <c r="P60" s="15"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19">
       <c r="B61" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="21">
         <v>16</v>
@@ -2814,9 +2811,9 @@
       <c r="P61" s="15"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19">
       <c r="B62" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="21">
         <v>12.3</v>
@@ -2848,9 +2845,9 @@
       <c r="P62" s="15"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19">
       <c r="B63" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63" s="21">
         <v>11.5</v>
@@ -2882,9 +2879,9 @@
       <c r="P63" s="15"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19">
       <c r="B64" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="21">
         <v>14</v>
@@ -2916,9 +2913,9 @@
       <c r="P64" s="15"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19">
       <c r="B65" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" s="21">
         <v>17.600000000000001</v>
@@ -2950,9 +2947,9 @@
       <c r="P65" s="15"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19">
       <c r="B66" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="21">
         <v>9.5</v>
@@ -2984,9 +2981,9 @@
       <c r="P66" s="15"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19">
       <c r="B67" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="21">
         <v>15</v>
@@ -3011,9 +3008,9 @@
       </c>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19">
       <c r="B68" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="21">
         <v>13.2</v>
@@ -3038,7 +3035,7 @@
       </c>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19">
       <c r="B69" s="21" t="s">
         <v>25</v>
       </c>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19">
       <c r="B70" s="21" t="s">
         <v>23</v>
       </c>
@@ -3092,7 +3089,7 @@
       </c>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19">
       <c r="B71" s="21" t="s">
         <v>23</v>
       </c>
@@ -3119,7 +3116,7 @@
       </c>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19">
       <c r="B72" s="21" t="s">
         <v>23</v>
       </c>
@@ -3146,7 +3143,7 @@
       </c>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19">
       <c r="B73" s="21" t="s">
         <v>23</v>
       </c>
@@ -3172,7 +3169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19">
       <c r="B74" s="21" t="s">
         <v>23</v>
       </c>
@@ -3199,7 +3196,7 @@
       </c>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19">
       <c r="B75" s="21" t="s">
         <v>23</v>
       </c>
@@ -3226,9 +3223,9 @@
       </c>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19">
       <c r="B76" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="21">
         <v>18.5</v>
@@ -3253,7 +3250,7 @@
       </c>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19">
       <c r="B77" s="21" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3277,7 @@
       </c>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19">
       <c r="B78" s="21" t="s">
         <v>23</v>
       </c>
@@ -3307,7 +3304,7 @@
       </c>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19">
       <c r="B79" s="21" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3331,7 @@
       </c>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19">
       <c r="B80" s="21" t="s">
         <v>23</v>
       </c>
@@ -3361,7 +3358,7 @@
       </c>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19">
       <c r="B81" s="21" t="s">
         <v>23</v>
       </c>
@@ -3388,7 +3385,7 @@
       </c>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19">
       <c r="B82" s="21" t="s">
         <v>23</v>
       </c>
@@ -3415,7 +3412,7 @@
       </c>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19">
       <c r="B83" s="21" t="s">
         <v>23</v>
       </c>
@@ -3442,7 +3439,7 @@
       </c>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19">
       <c r="B84" s="21" t="s">
         <v>23</v>
       </c>
@@ -3469,9 +3466,9 @@
       </c>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19">
       <c r="B85" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" s="21">
         <v>18</v>
@@ -3496,9 +3493,9 @@
       </c>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:19">
       <c r="B86" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" s="21">
         <v>21.5</v>
@@ -3523,7 +3520,7 @@
       </c>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:19">
       <c r="B87" s="21" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3547,7 @@
       </c>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:19">
       <c r="B88" s="21" t="s">
         <v>25</v>
       </c>
@@ -3577,7 +3574,7 @@
       </c>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:19">
       <c r="B89" s="21" t="s">
         <v>25</v>
       </c>
@@ -3604,7 +3601,7 @@
       </c>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:19">
       <c r="B90" s="21" t="s">
         <v>25</v>
       </c>
@@ -3631,7 +3628,7 @@
       </c>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:19">
       <c r="B91" s="21" t="s">
         <v>25</v>
       </c>
@@ -3658,7 +3655,7 @@
       </c>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:19">
       <c r="B92" s="21" t="s">
         <v>25</v>
       </c>
@@ -3685,7 +3682,7 @@
       </c>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:19">
       <c r="B93" s="21" t="s">
         <v>25</v>
       </c>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19">
       <c r="B94" s="21" t="s">
         <v>25</v>
       </c>
@@ -3739,7 +3736,7 @@
       </c>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:19">
       <c r="B95" s="21" t="s">
         <v>25</v>
       </c>
@@ -3765,7 +3762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19">
       <c r="B96" s="21" t="s">
         <v>23</v>
       </c>
@@ -3792,7 +3789,7 @@
       </c>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19">
       <c r="B97" s="21" t="s">
         <v>25</v>
       </c>
@@ -3819,7 +3816,7 @@
       </c>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19">
       <c r="B98" s="21" t="s">
         <v>25</v>
       </c>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19">
       <c r="B99" s="21" t="s">
         <v>25</v>
       </c>
@@ -3873,9 +3870,9 @@
       </c>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19">
       <c r="B100" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C100" s="21">
         <v>26</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19">
       <c r="B101" s="21" t="s">
         <v>25</v>
       </c>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="S101" s="7"/>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19">
       <c r="B102" s="21" t="s">
         <v>25</v>
       </c>
@@ -3954,7 +3951,7 @@
       </c>
       <c r="S102" s="7"/>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19">
       <c r="B103" s="21" t="s">
         <v>25</v>
       </c>
@@ -3981,7 +3978,7 @@
       </c>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19">
       <c r="B104" s="21" t="s">
         <v>25</v>
       </c>
@@ -4008,7 +4005,7 @@
       </c>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19">
       <c r="B105" s="21" t="s">
         <v>25</v>
       </c>
@@ -4035,9 +4032,9 @@
       </c>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19">
       <c r="B106" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C106" s="21">
         <v>22.5</v>
@@ -4062,9 +4059,9 @@
       </c>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19">
       <c r="B107" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="21">
         <v>17</v>
@@ -4089,9 +4086,9 @@
       </c>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19">
       <c r="B108" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C108" s="21">
         <v>20</v>
@@ -4116,9 +4113,9 @@
       </c>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:19">
       <c r="B109" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109" s="21">
         <v>21</v>
@@ -4143,9 +4140,9 @@
       </c>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:19">
       <c r="B110" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110" s="21">
         <v>12.5</v>
@@ -4170,9 +4167,9 @@
       </c>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:19">
       <c r="B111" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C111" s="21">
         <v>18.5</v>
@@ -4197,9 +4194,9 @@
       </c>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:19">
       <c r="B112" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C112" s="21">
         <v>21.7</v>
@@ -4223,9 +4220,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9">
       <c r="B113" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C113" s="21">
         <v>15.4</v>
@@ -4249,9 +4246,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9">
       <c r="B114" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C114" s="21">
         <v>14.7</v>
@@ -4275,9 +4272,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9">
       <c r="B115" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" s="21">
         <v>19.3</v>
@@ -4301,9 +4298,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9">
       <c r="B116" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C116" s="21">
         <v>16.5</v>
@@ -4327,9 +4324,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9">
       <c r="B117" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C117" s="21">
         <v>15</v>
@@ -4353,9 +4350,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9">
       <c r="B118" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C118" s="21">
         <v>18</v>
@@ -4379,9 +4376,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9">
       <c r="B119" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" s="21">
         <v>17.5</v>
@@ -4405,9 +4402,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9">
       <c r="B120" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C120" s="21">
         <v>28</v>
@@ -4431,9 +4428,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9">
       <c r="B121" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C121" s="21">
         <v>18.5</v>
@@ -4457,9 +4454,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9">
       <c r="B122" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C122" s="21">
         <v>13.5</v>
@@ -4483,9 +4480,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9">
       <c r="B123" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C123" s="21">
         <v>15.8</v>
@@ -4509,9 +4506,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9">
       <c r="B124" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" s="21">
         <v>15.3</v>
@@ -4535,9 +4532,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9">
       <c r="B125" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C125" s="21">
         <v>13.4</v>
@@ -4561,7 +4558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9">
       <c r="B126" s="21" t="s">
         <v>25</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9">
       <c r="B127" s="21" t="s">
         <v>25</v>
       </c>
@@ -4613,7 +4610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9">
       <c r="B128" s="21" t="s">
         <v>25</v>
       </c>
@@ -4639,7 +4636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9">
       <c r="B129" s="21" t="s">
         <v>23</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9">
       <c r="B130" s="21" t="s">
         <v>23</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9">
       <c r="B131" s="21" t="s">
         <v>23</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9">
       <c r="B132" s="21" t="s">
         <v>25</v>
       </c>
@@ -4743,7 +4740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9">
       <c r="B133" s="21" t="s">
         <v>25</v>
       </c>
@@ -4769,7 +4766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9">
       <c r="B134" s="21" t="s">
         <v>25</v>
       </c>
@@ -4795,7 +4792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9">
       <c r="B135" s="21" t="s">
         <v>23</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9">
       <c r="B136" s="21" t="s">
         <v>23</v>
       </c>
@@ -4847,7 +4844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9">
       <c r="B137" s="21" t="s">
         <v>23</v>
       </c>
@@ -4873,7 +4870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9">
       <c r="B138" s="21" t="s">
         <v>23</v>
       </c>
@@ -4899,7 +4896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9">
       <c r="B139" s="21" t="s">
         <v>23</v>
       </c>
@@ -4927,6 +4924,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="O42:Q42"/>
     <mergeCell ref="O43:Q43"/>
     <mergeCell ref="E2:I2"/>
@@ -4940,36 +4941,46 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>